--- a/explainable_low_disc/train/class_label.xlsx
+++ b/explainable_low_disc/train/class_label.xlsx
@@ -812,7 +812,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1156,7 +1156,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -1844,7 +1844,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -1852,7 +1852,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -2052,7 +2052,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -2092,7 +2092,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -2100,7 +2100,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -2628,7 +2628,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -2716,7 +2716,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -3252,7 +3252,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
@@ -3652,7 +3652,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
@@ -3868,7 +3868,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
@@ -4476,7 +4476,7 @@
         <v>504</v>
       </c>
       <c r="B506" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507">
@@ -4548,7 +4548,7 @@
         <v>513</v>
       </c>
       <c r="B515" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
@@ -4740,7 +4740,7 @@
         <v>537</v>
       </c>
       <c r="B539" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
@@ -4900,7 +4900,7 @@
         <v>557</v>
       </c>
       <c r="B559" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
@@ -5156,7 +5156,7 @@
         <v>589</v>
       </c>
       <c r="B591" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592">
@@ -5204,7 +5204,7 @@
         <v>595</v>
       </c>
       <c r="B597" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
@@ -5748,7 +5748,7 @@
         <v>663</v>
       </c>
       <c r="B665" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666">
@@ -5796,7 +5796,7 @@
         <v>669</v>
       </c>
       <c r="B671" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672">
@@ -6844,7 +6844,7 @@
         <v>800</v>
       </c>
       <c r="B802" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803">
@@ -7156,7 +7156,7 @@
         <v>839</v>
       </c>
       <c r="B841" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842">
@@ -7324,7 +7324,7 @@
         <v>860</v>
       </c>
       <c r="B862" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863">
@@ -8220,7 +8220,7 @@
         <v>972</v>
       </c>
       <c r="B974" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975">
@@ -8276,7 +8276,7 @@
         <v>979</v>
       </c>
       <c r="B981" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982">
@@ -8700,7 +8700,7 @@
         <v>1032</v>
       </c>
       <c r="B1034" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1035">
@@ -9660,7 +9660,7 @@
         <v>1152</v>
       </c>
       <c r="B1154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1155">
@@ -10116,7 +10116,7 @@
         <v>1209</v>
       </c>
       <c r="B1211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1212">
@@ -10212,7 +10212,7 @@
         <v>1221</v>
       </c>
       <c r="B1223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1224">
@@ -10412,7 +10412,7 @@
         <v>1246</v>
       </c>
       <c r="B1248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1249">
@@ -10444,7 +10444,7 @@
         <v>1250</v>
       </c>
       <c r="B1252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1253">
@@ -10564,7 +10564,7 @@
         <v>1265</v>
       </c>
       <c r="B1267" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1268">
@@ -10972,7 +10972,7 @@
         <v>1316</v>
       </c>
       <c r="B1318" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1319">
@@ -11692,7 +11692,7 @@
         <v>1406</v>
       </c>
       <c r="B1408" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1409">
@@ -12692,7 +12692,7 @@
         <v>1531</v>
       </c>
       <c r="B1533" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1534">
@@ -12812,7 +12812,7 @@
         <v>1546</v>
       </c>
       <c r="B1548" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1549">
@@ -13188,7 +13188,7 @@
         <v>1593</v>
       </c>
       <c r="B1595" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1596">
@@ -13524,7 +13524,7 @@
         <v>1635</v>
       </c>
       <c r="B1637" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1638">
@@ -13868,7 +13868,7 @@
         <v>1678</v>
       </c>
       <c r="B1680" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1681">
@@ -14284,7 +14284,7 @@
         <v>1730</v>
       </c>
       <c r="B1732" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1733">
@@ -14628,7 +14628,7 @@
         <v>1773</v>
       </c>
       <c r="B1775" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1776">
@@ -15236,7 +15236,7 @@
         <v>1849</v>
       </c>
       <c r="B1851" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1852">
@@ -15556,7 +15556,7 @@
         <v>1889</v>
       </c>
       <c r="B1891" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1892">
@@ -15972,7 +15972,7 @@
         <v>1941</v>
       </c>
       <c r="B1943" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1944">
@@ -16532,7 +16532,7 @@
         <v>2011</v>
       </c>
       <c r="B2013" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2014">
@@ -16868,7 +16868,7 @@
         <v>2053</v>
       </c>
       <c r="B2055" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2056">
@@ -16884,7 +16884,7 @@
         <v>2055</v>
       </c>
       <c r="B2057" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2058">
@@ -17108,7 +17108,7 @@
         <v>2083</v>
       </c>
       <c r="B2085" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2086">
@@ -17396,7 +17396,7 @@
         <v>2119</v>
       </c>
       <c r="B2121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2122">
@@ -18564,7 +18564,7 @@
         <v>2265</v>
       </c>
       <c r="B2267" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2268">
@@ -18836,7 +18836,7 @@
         <v>2299</v>
       </c>
       <c r="B2301" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2302">
@@ -19948,7 +19948,7 @@
         <v>2438</v>
       </c>
       <c r="B2440" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2441">
@@ -20076,7 +20076,7 @@
         <v>2454</v>
       </c>
       <c r="B2456" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2457">
@@ -20556,7 +20556,7 @@
         <v>2514</v>
       </c>
       <c r="B2516" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2517">
@@ -20644,7 +20644,7 @@
         <v>2525</v>
       </c>
       <c r="B2527" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2528">
@@ -20748,7 +20748,7 @@
         <v>2538</v>
       </c>
       <c r="B2540" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2541">
@@ -20924,7 +20924,7 @@
         <v>2560</v>
       </c>
       <c r="B2562" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2563">
@@ -21708,7 +21708,7 @@
         <v>2658</v>
       </c>
       <c r="B2660" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2661">
@@ -22236,7 +22236,7 @@
         <v>2724</v>
       </c>
       <c r="B2726" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2727">
@@ -22252,7 +22252,7 @@
         <v>2726</v>
       </c>
       <c r="B2728" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2729">
@@ -22340,7 +22340,7 @@
         <v>2737</v>
       </c>
       <c r="B2739" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2740">
@@ -22572,7 +22572,7 @@
         <v>2766</v>
       </c>
       <c r="B2768" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2769">
@@ -22588,7 +22588,7 @@
         <v>2768</v>
       </c>
       <c r="B2770" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2771">
@@ -23812,7 +23812,7 @@
         <v>2921</v>
       </c>
       <c r="B2923" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2924">
@@ -23884,7 +23884,7 @@
         <v>2930</v>
       </c>
       <c r="B2932" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2933">
@@ -24324,7 +24324,7 @@
         <v>2985</v>
       </c>
       <c r="B2987" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2988">
@@ -24364,7 +24364,7 @@
         <v>2990</v>
       </c>
       <c r="B2992" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2993">
@@ -25460,7 +25460,7 @@
         <v>3127</v>
       </c>
       <c r="B3129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3130">
@@ -25700,7 +25700,7 @@
         <v>3157</v>
       </c>
       <c r="B3159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3160">
@@ -25868,7 +25868,7 @@
         <v>3178</v>
       </c>
       <c r="B3180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3181">
@@ -26100,7 +26100,7 @@
         <v>3207</v>
       </c>
       <c r="B3209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3210">
@@ -27012,7 +27012,7 @@
         <v>3321</v>
       </c>
       <c r="B3323" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3324">
@@ -27116,7 +27116,7 @@
         <v>3334</v>
       </c>
       <c r="B3336" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3337">
@@ -27932,7 +27932,7 @@
         <v>3436</v>
       </c>
       <c r="B3438" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3439">
@@ -28140,7 +28140,7 @@
         <v>3462</v>
       </c>
       <c r="B3464" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3465">
@@ -28148,7 +28148,7 @@
         <v>3463</v>
       </c>
       <c r="B3465" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3466">
@@ -28164,7 +28164,7 @@
         <v>3465</v>
       </c>
       <c r="B3467" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3468">
